--- a/data/trans_bre/P25_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Urba-trans_bre.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:J12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -523,6 +523,8 @@
     <col width="14" customWidth="1" min="6" max="6"/>
     <col width="14" customWidth="1" min="7" max="7"/>
     <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -539,13 +541,15 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Brecha de género relativa</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -567,17 +571,27 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -590,6 +604,8 @@
       <c r="F3" s="2" t="n"/>
       <c r="G3" s="2" t="n"/>
       <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -604,32 +620,42 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-0,58</t>
+          <t>-1,25</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-0,88</t>
+          <t>-5,49</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>1,88</t>
+          <t>1,45</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-3,6%</t>
+          <t>12,34</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-5,09%</t>
+          <t>-8,01%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>12,25%</t>
+          <t>-30,61%</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>9,9%</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>86,12%</t>
         </is>
       </c>
     </row>
@@ -642,32 +668,42 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-6,49; 5,35</t>
+          <t>-8,58; 6,21</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-6,52; 5,16</t>
+          <t>-12,28; 2,24</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 7,85</t>
+          <t>-5,35; 9,66</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-34,4; 39,14</t>
+          <t>3,66; 22,12</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-32,94; 36,54</t>
+          <t>-42,43; 60,2</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-24,89; 63,55</t>
+          <t>-56,74; 16,7</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>-31,01; 99,48</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>18,98; 225,71</t>
         </is>
       </c>
     </row>
@@ -684,32 +720,42 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-9,73</t>
+          <t>-9,74</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>-3,21</t>
+          <t>-1,93</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-1,13</t>
+          <t>-2,16</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-52,97%</t>
+          <t>-5,85</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-20,25%</t>
+          <t>-58,74%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-8,73%</t>
+          <t>-14,37%</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>-18,37%</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>-29,61%</t>
         </is>
       </c>
     </row>
@@ -722,32 +768,42 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-20,49; -2,64</t>
+          <t>-16,95; -2,54</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-10,42; 3,16</t>
+          <t>-9,43; 5,99</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-8,04; 4,48</t>
+          <t>-9,89; 4,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,28; -18,13</t>
+          <t>-15,36; 3,81</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-49,72; 29,37</t>
+          <t>-79,64; -16,73</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-46,54; 48,66</t>
+          <t>-54,98; 71,31</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>-58,77; 57,94</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>-59,4; 28,42</t>
         </is>
       </c>
     </row>
@@ -764,32 +820,42 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>1,51</t>
+          <t>0,38</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,31</t>
+          <t>7,64</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>7,43</t>
+          <t>0,59</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>19,09%</t>
+          <t>-12,34</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>316,06%</t>
+          <t>5,63%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>88,66%</t>
+          <t>inf%</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>9,52%</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>-87,78%</t>
         </is>
       </c>
     </row>
@@ -802,32 +868,42 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-9,29; 11,62</t>
+          <t>-12,4; 14,75</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>0,72; 18,6</t>
+          <t>2,4; 19,88</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-4,75; 18,09</t>
+          <t>-11,52; 14,97</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-72,6; 397,33</t>
+          <t>-28,71; -0,42</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-42,76; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-42,21; 517,38</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -844,32 +920,42 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>-3,87</t>
+          <t>-4,43</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>-0,56</t>
+          <t>-2,57</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>1,42</t>
+          <t>-0,02</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>-24,21%</t>
+          <t>2,77</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-3,77%</t>
+          <t>-29,55%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>10,51%</t>
+          <t>-18,15%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>-0,16%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>16,84%</t>
         </is>
       </c>
     </row>
@@ -882,42 +968,59 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-9,61; 0,16</t>
+          <t>-9,62; -0,01</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-4,8; 3,88</t>
+          <t>-7,74; 2,34</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-2,85; 5,5</t>
+          <t>-4,59; 5,21</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-48,54; 1,69</t>
+          <t>-3,24; 9,66</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-28,23; 31,32</t>
+          <t>-52,79; 1,77</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-18,11; 48,9</t>
+          <t>-46,09; 19,17</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>-31,81; 58,74</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>-17,02; 74,68</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
   </mergeCells>

--- a/data/trans_bre/P25_3-Urba-trans_bre.xlsx
+++ b/data/trans_bre/P25_3-Urba-trans_bre.xlsx
@@ -16,7 +16,10 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="0.##"/>
+    <numFmt numFmtId="165" formatCode="0.##%"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <name val="Calibri"/>
@@ -125,7 +128,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -138,6 +141,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -504,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J12"/>
+  <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -618,299 +627,199 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="2" t="inlineStr">
-        <is>
-          <t>-1,25</t>
-        </is>
-      </c>
-      <c r="D4" s="2" t="inlineStr">
-        <is>
-          <t>-5,49</t>
-        </is>
-      </c>
-      <c r="E4" s="2" t="inlineStr">
-        <is>
-          <t>1,45</t>
-        </is>
-      </c>
-      <c r="F4" s="2" t="inlineStr">
-        <is>
-          <t>12,34</t>
-        </is>
-      </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>-8,01%</t>
-        </is>
-      </c>
-      <c r="H4" s="2" t="inlineStr">
-        <is>
-          <t>-30,61%</t>
-        </is>
-      </c>
-      <c r="I4" s="2" t="inlineStr">
-        <is>
-          <t>9,9%</t>
-        </is>
-      </c>
-      <c r="J4" s="2" t="inlineStr">
-        <is>
-          <t>86,12%</t>
-        </is>
+      <c r="C4" s="5" t="n">
+        <v>-0.6536075535297503</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>-6.176701001836197</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.9474606855579576</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>12.10291245430748</v>
+      </c>
+      <c r="G4" s="6" t="n">
+        <v>-0.04372954174961367</v>
+      </c>
+      <c r="H4" s="6" t="n">
+        <v>-0.3339464607171453</v>
+      </c>
+      <c r="I4" s="6" t="n">
+        <v>0.06411322144303355</v>
+      </c>
+      <c r="J4" s="6" t="n">
+        <v>0.8467993413756246</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C5" s="2" t="inlineStr">
-        <is>
-          <t>-8,58; 6,21</t>
-        </is>
-      </c>
-      <c r="D5" s="2" t="inlineStr">
-        <is>
-          <t>-12,28; 2,24</t>
-        </is>
-      </c>
-      <c r="E5" s="2" t="inlineStr">
-        <is>
-          <t>-5,35; 9,66</t>
-        </is>
-      </c>
-      <c r="F5" s="2" t="inlineStr">
-        <is>
-          <t>3,66; 22,12</t>
-        </is>
-      </c>
-      <c r="G5" s="2" t="inlineStr">
-        <is>
-          <t>-42,43; 60,2</t>
-        </is>
-      </c>
-      <c r="H5" s="2" t="inlineStr">
-        <is>
-          <t>-56,74; 16,7</t>
-        </is>
-      </c>
-      <c r="I5" s="2" t="inlineStr">
-        <is>
-          <t>-31,01; 99,48</t>
-        </is>
-      </c>
-      <c r="J5" s="2" t="inlineStr">
-        <is>
-          <t>18,98; 225,71</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C5" s="5" t="n">
+        <v>-7.755338182856226</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-13.14101801651617</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-5.831909352738245</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>3.689373427651135</v>
+      </c>
+      <c r="G5" s="6" t="n">
+        <v>-0.4128195708663531</v>
+      </c>
+      <c r="H5" s="6" t="n">
+        <v>-0.5845492481384967</v>
+      </c>
+      <c r="I5" s="6" t="n">
+        <v>-0.3211887825232034</v>
+      </c>
+      <c r="J5" s="6" t="n">
+        <v>0.1921386219215124</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="inlineStr">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C6" s="5" t="n">
+        <v>6.562114439013871</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>1.567897278901273</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>9.173894915013298</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>22.29059922936019</v>
+      </c>
+      <c r="G6" s="6" t="n">
+        <v>0.6585227983447957</v>
+      </c>
+      <c r="H6" s="6" t="n">
+        <v>0.1182167686593848</v>
+      </c>
+      <c r="I6" s="6" t="n">
+        <v>0.9774392512495438</v>
+      </c>
+      <c r="J6" s="6" t="n">
+        <v>2.226069955705321</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
         <is>
           <t>Intermedio</t>
         </is>
       </c>
-      <c r="B6" s="3" t="inlineStr">
+      <c r="B7" s="3" t="inlineStr">
         <is>
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C6" s="2" t="inlineStr">
-        <is>
-          <t>-9,74</t>
-        </is>
-      </c>
-      <c r="D6" s="2" t="inlineStr">
-        <is>
-          <t>-1,93</t>
-        </is>
-      </c>
-      <c r="E6" s="2" t="inlineStr">
-        <is>
-          <t>-2,16</t>
-        </is>
-      </c>
-      <c r="F6" s="2" t="inlineStr">
-        <is>
-          <t>-5,85</t>
-        </is>
-      </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>-58,74%</t>
-        </is>
-      </c>
-      <c r="H6" s="2" t="inlineStr">
-        <is>
-          <t>-14,37%</t>
-        </is>
-      </c>
-      <c r="I6" s="2" t="inlineStr">
-        <is>
-          <t>-18,37%</t>
-        </is>
-      </c>
-      <c r="J6" s="2" t="inlineStr">
-        <is>
-          <t>-29,61%</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="n"/>
-      <c r="B7" s="3" t="inlineStr">
-        <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C7" s="2" t="inlineStr">
-        <is>
-          <t>-16,95; -2,54</t>
-        </is>
-      </c>
-      <c r="D7" s="2" t="inlineStr">
-        <is>
-          <t>-9,43; 5,99</t>
-        </is>
-      </c>
-      <c r="E7" s="2" t="inlineStr">
-        <is>
-          <t>-9,89; 4,3</t>
-        </is>
-      </c>
-      <c r="F7" s="2" t="inlineStr">
-        <is>
-          <t>-15,36; 3,81</t>
-        </is>
-      </c>
-      <c r="G7" s="2" t="inlineStr">
-        <is>
-          <t>-79,64; -16,73</t>
-        </is>
-      </c>
-      <c r="H7" s="2" t="inlineStr">
-        <is>
-          <t>-54,98; 71,31</t>
-        </is>
-      </c>
-      <c r="I7" s="2" t="inlineStr">
-        <is>
-          <t>-58,77; 57,94</t>
-        </is>
-      </c>
-      <c r="J7" s="2" t="inlineStr">
-        <is>
-          <t>-59,4; 28,42</t>
-        </is>
+      <c r="C7" s="5" t="n">
+        <v>-8.836824809178829</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>-1.099877605534599</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-1.215141771589977</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>-4.634667033954681</v>
+      </c>
+      <c r="G7" s="6" t="n">
+        <v>-0.5652368035297947</v>
+      </c>
+      <c r="H7" s="6" t="n">
+        <v>-0.08377759323346017</v>
+      </c>
+      <c r="I7" s="6" t="n">
+        <v>-0.1144229329002987</v>
+      </c>
+      <c r="J7" s="6" t="n">
+        <v>-0.2547978496313147</v>
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>Rural</t>
-        </is>
-      </c>
+      <c r="A8" s="1" t="n"/>
       <c r="B8" s="3" t="inlineStr">
         <is>
-          <t>Estimación</t>
-        </is>
-      </c>
-      <c r="C8" s="2" t="inlineStr">
-        <is>
-          <t>0,38</t>
-        </is>
-      </c>
-      <c r="D8" s="2" t="inlineStr">
-        <is>
-          <t>7,64</t>
-        </is>
-      </c>
-      <c r="E8" s="2" t="inlineStr">
-        <is>
-          <t>0,59</t>
-        </is>
-      </c>
-      <c r="F8" s="2" t="inlineStr">
-        <is>
-          <t>-12,34</t>
-        </is>
-      </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>5,63%</t>
-        </is>
-      </c>
-      <c r="H8" s="2" t="inlineStr">
-        <is>
-          <t>inf%</t>
-        </is>
-      </c>
-      <c r="I8" s="2" t="inlineStr">
-        <is>
-          <t>9,52%</t>
-        </is>
-      </c>
-      <c r="J8" s="2" t="inlineStr">
-        <is>
-          <t>-87,78%</t>
-        </is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C8" s="5" t="n">
+        <v>-16.60215885204961</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-8.873015684050737</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-8.284556807591031</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-13.47236260689253</v>
+      </c>
+      <c r="G8" s="6" t="n">
+        <v>-0.7721355677634534</v>
+      </c>
+      <c r="H8" s="6" t="n">
+        <v>-0.5104293312424135</v>
+      </c>
+      <c r="I8" s="6" t="n">
+        <v>-0.5532900952133946</v>
+      </c>
+      <c r="J8" s="6" t="n">
+        <v>-0.562763494954534</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C9" s="2" t="inlineStr">
-        <is>
-          <t>-12,4; 14,75</t>
-        </is>
-      </c>
-      <c r="D9" s="2" t="inlineStr">
-        <is>
-          <t>2,4; 19,88</t>
-        </is>
-      </c>
-      <c r="E9" s="2" t="inlineStr">
-        <is>
-          <t>-11,52; 14,97</t>
-        </is>
-      </c>
-      <c r="F9" s="2" t="inlineStr">
-        <is>
-          <t>-28,71; -0,42</t>
-        </is>
-      </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="H9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="I9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
-      </c>
-      <c r="J9" s="2" t="inlineStr">
-        <is>
-          <t>—; —</t>
-        </is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C9" s="5" t="n">
+        <v>-1.475186779821192</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>7.460395528870293</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>5.06081823220556</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>4.456683715267656</v>
+      </c>
+      <c r="G9" s="6" t="n">
+        <v>-0.09595530759615203</v>
+      </c>
+      <c r="H9" s="6" t="n">
+        <v>0.8128606185923132</v>
+      </c>
+      <c r="I9" s="6" t="n">
+        <v>0.7385459261946585</v>
+      </c>
+      <c r="J9" s="6" t="n">
+        <v>0.3522104984076447</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>Rural</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -918,97 +827,183 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="2" t="inlineStr">
-        <is>
-          <t>-4,43</t>
-        </is>
-      </c>
-      <c r="D10" s="2" t="inlineStr">
-        <is>
-          <t>-2,57</t>
-        </is>
-      </c>
-      <c r="E10" s="2" t="inlineStr">
-        <is>
-          <t>-0,02</t>
-        </is>
-      </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>2,77</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>-29,55%</t>
-        </is>
-      </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>-18,15%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>-0,16%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
-        <is>
-          <t>16,84%</t>
-        </is>
+      <c r="C10" s="5" t="n">
+        <v>0.056373975972214</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>7.469485228202856</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>2.212012720183611</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>-11.54694876922925</v>
+      </c>
+      <c r="G10" s="6" t="n">
+        <v>0.008871185127444144</v>
+      </c>
+      <c r="H10" s="6" t="inlineStr">
+        <is>
+          <t>inf</t>
+        </is>
+      </c>
+      <c r="I10" s="6" t="n">
+        <v>0.3643816469574772</v>
+      </c>
+      <c r="J10" s="6" t="n">
+        <v>-0.8526786122424777</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="3" t="inlineStr">
         <is>
-          <t>IC 95%</t>
-        </is>
-      </c>
-      <c r="C11" s="2" t="inlineStr">
-        <is>
-          <t>-9,62; -0,01</t>
-        </is>
-      </c>
-      <c r="D11" s="2" t="inlineStr">
-        <is>
-          <t>-7,74; 2,34</t>
-        </is>
-      </c>
-      <c r="E11" s="2" t="inlineStr">
-        <is>
-          <t>-4,59; 5,21</t>
-        </is>
-      </c>
-      <c r="F11" s="2" t="inlineStr">
-        <is>
-          <t>-3,24; 9,66</t>
-        </is>
-      </c>
-      <c r="G11" s="2" t="inlineStr">
-        <is>
-          <t>-52,79; 1,77</t>
-        </is>
-      </c>
-      <c r="H11" s="2" t="inlineStr">
-        <is>
-          <t>-46,09; 19,17</t>
-        </is>
-      </c>
-      <c r="I11" s="2" t="inlineStr">
-        <is>
-          <t>-31,81; 58,74</t>
-        </is>
-      </c>
-      <c r="J11" s="2" t="inlineStr">
-        <is>
-          <t>-17,02; 74,68</t>
-        </is>
-      </c>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C11" s="5" t="n">
+        <v>-11.69594525696709</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>2.20678254829158</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-9.62568735691657</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-26.12935312648218</v>
+      </c>
+      <c r="G11" s="6" t="inlineStr"/>
+      <c r="H11" s="6" t="inlineStr"/>
+      <c r="I11" s="6" t="inlineStr"/>
+      <c r="J11" s="6" t="inlineStr"/>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C12" s="5" t="n">
+        <v>13.65435592886889</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>19.71327836407149</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>19.76428173068808</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>0.2514446605195846</v>
+      </c>
+      <c r="G12" s="6" t="inlineStr"/>
+      <c r="H12" s="6" t="inlineStr"/>
+      <c r="I12" s="6" t="inlineStr"/>
+      <c r="J12" s="6" t="inlineStr"/>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C13" s="5" t="n">
+        <v>-3.847805046930364</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>-2.548366569156236</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>0.2870889409204866</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>3.088291064752682</v>
+      </c>
+      <c r="G13" s="6" t="n">
+        <v>-0.2680850752208414</v>
+      </c>
+      <c r="H13" s="6" t="n">
+        <v>-0.1787206594457165</v>
+      </c>
+      <c r="I13" s="6" t="n">
+        <v>0.02374791116933901</v>
+      </c>
+      <c r="J13" s="6" t="n">
+        <v>0.1958880762869022</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% inferior</t>
+        </is>
+      </c>
+      <c r="C14" s="5" t="n">
+        <v>-8.880696032783961</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-7.92285402522521</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-4.22246580058818</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-2.77736825876792</v>
+      </c>
+      <c r="G14" s="6" t="n">
+        <v>-0.5143715162415637</v>
+      </c>
+      <c r="H14" s="6" t="n">
+        <v>-0.4590834443358029</v>
+      </c>
+      <c r="I14" s="6" t="n">
+        <v>-0.3064777501159705</v>
+      </c>
+      <c r="J14" s="6" t="n">
+        <v>-0.1442087478186704</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95% superior</t>
+        </is>
+      </c>
+      <c r="C15" s="5" t="n">
+        <v>0.7723916763124733</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>2.317714780153129</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>5.407144304550088</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>9.763394313007172</v>
+      </c>
+      <c r="G15" s="6" t="n">
+        <v>0.06821793456111382</v>
+      </c>
+      <c r="H15" s="6" t="n">
+        <v>0.2050792932411943</v>
+      </c>
+      <c r="I15" s="6" t="n">
+        <v>0.6136784521276645</v>
+      </c>
+      <c r="J15" s="6" t="n">
+        <v>0.7602110962101185</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
         <is>
           <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
@@ -1016,13 +1011,13 @@
     </row>
   </sheetData>
   <mergeCells count="7">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A10:A12"/>
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
